--- a/automation-project/ExcelDataFiles/TestCaseData.xlsx
+++ b/automation-project/ExcelDataFiles/TestCaseData.xlsx
@@ -1,22 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage_AMAZON US PROD ENV" sheetId="1" r:id="rId1"/>
-    <sheet name="HomePage_AMAZON INDIA PROD ENV" sheetId="2" r:id="rId2"/>
-    <sheet name="HomePage_ANDROID AMAZON APP" sheetId="3" r:id="rId3"/>
+    <sheet name="HomePage_EVOSYS TEST ENV" sheetId="4" r:id="rId2"/>
+    <sheet name="HomePage_AMAZON INDIA PROD ENV" sheetId="2" r:id="rId3"/>
+    <sheet name="HomePage_ANDROID AMAZON APP" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Needs to be updated on every run</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Should always be current system date
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Needs to be updated on every run</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Should always be current system date</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="102">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -52,13 +160,283 @@
   </si>
   <si>
     <t>LifeProof FRE SERIES Waterproof Case for iPhone 5/5s/SE - Retail Packaging - BLACK</t>
+  </si>
+  <si>
+    <t>TC1_data</t>
+  </si>
+  <si>
+    <t>TC1_parameter</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Welcome Text</t>
+  </si>
+  <si>
+    <t>InvoicePage link</t>
+  </si>
+  <si>
+    <t>Invoices</t>
+  </si>
+  <si>
+    <t>Create Invoice Link</t>
+  </si>
+  <si>
+    <t>Create Invoice</t>
+  </si>
+  <si>
+    <t>Invoice Page Title</t>
+  </si>
+  <si>
+    <t>Invoice Workbench</t>
+  </si>
+  <si>
+    <t>Business Unit</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Invoice Group</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Header Amount (With tax)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Line Amount (Without tax)</t>
+  </si>
+  <si>
+    <t>Distribution Combination (Asset Clearing Account)</t>
+  </si>
+  <si>
+    <t>Tax Classification</t>
+  </si>
+  <si>
+    <t>FA_02_1_Status</t>
+  </si>
+  <si>
+    <t>FA_02_1_ Screenshot</t>
+  </si>
+  <si>
+    <t>FA_02_1_ Date &amp; Time</t>
+  </si>
+  <si>
+    <t>Accounting Date (For Mass Addition Process)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Inservice Date</t>
+  </si>
+  <si>
+    <t>Asset Category</t>
+  </si>
+  <si>
+    <t>Asset Key</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>FA_02_2_Status</t>
+  </si>
+  <si>
+    <t>FA_02_2_Screenshot</t>
+  </si>
+  <si>
+    <t>FA_02_2_Date&amp;Time</t>
+  </si>
+  <si>
+    <t>Asset Book</t>
+  </si>
+  <si>
+    <t>Arrow XL</t>
+  </si>
+  <si>
+    <t>A C Forklifts Ltd</t>
+  </si>
+  <si>
+    <t>11-999-999-11856-999999-99-9999-9999</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>Asset Testing_FA_6</t>
+  </si>
+  <si>
+    <t>13/02/2020</t>
+  </si>
+  <si>
+    <t>PLANT &amp; MACHINERY-P&amp;M CONSULTANCY-GENERAL</t>
+  </si>
+  <si>
+    <t>911038-GENERAL</t>
+  </si>
+  <si>
+    <t>Preston, Joanne</t>
+  </si>
+  <si>
+    <t>IRELAND-CARRICKFERGUS-CAR PARK-BT38 8PH</t>
+  </si>
+  <si>
+    <t>ARROWXL_ASSET_REGISTER</t>
+  </si>
+  <si>
+    <t>Validate</t>
+  </si>
+  <si>
+    <t>Invoice Action1</t>
+  </si>
+  <si>
+    <t>Invoice Action2</t>
+  </si>
+  <si>
+    <t>Post to Ledger</t>
+  </si>
+  <si>
+    <t>Create Mass Additions</t>
+  </si>
+  <si>
+    <t>Create Mass Additions link</t>
+  </si>
+  <si>
+    <t>Assets Page Link</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>FA_020</t>
+  </si>
+  <si>
+    <t>Distribution Combination</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Date &amp; Time</t>
+  </si>
+  <si>
+    <t>Search Asset</t>
+  </si>
+  <si>
+    <t>FA_00</t>
+  </si>
+  <si>
+    <t>RPA TEST8.1</t>
+  </si>
+  <si>
+    <t>RPA TEST8.2</t>
+  </si>
+  <si>
+    <t>RPA TEST8</t>
+  </si>
+  <si>
+    <t>RPA TEST8.3</t>
+  </si>
+  <si>
+    <t>RPA TEST8.4</t>
+  </si>
+  <si>
+    <t>TC2_data_1</t>
+  </si>
+  <si>
+    <t>TC2_data_2</t>
+  </si>
+  <si>
+    <t>TC2_data_3</t>
+  </si>
+  <si>
+    <t>TC2_data_4</t>
+  </si>
+  <si>
+    <t>Total Invoices</t>
+  </si>
+  <si>
+    <t>Fixed Asset Link</t>
+  </si>
+  <si>
+    <t>Fixed Assets</t>
+  </si>
+  <si>
+    <t>ecllipse6</t>
+  </si>
+  <si>
+    <t>01-07-2020</t>
+  </si>
+  <si>
+    <t>Sign Out Link</t>
+  </si>
+  <si>
+    <t>Sign Out</t>
+  </si>
+  <si>
+    <t>Validated</t>
+  </si>
+  <si>
+    <t>Invoice Status</t>
+  </si>
+  <si>
+    <t>Approval State1</t>
+  </si>
+  <si>
+    <t>Initiated</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Screenshots</t>
+  </si>
+  <si>
+    <t>Date&amp;Time</t>
+  </si>
+  <si>
+    <t>Geometric Results International Limited</t>
+  </si>
+  <si>
+    <t>AP_03</t>
+  </si>
+  <si>
+    <t>AP_Unmatched1</t>
+  </si>
+  <si>
+    <t>11-999-999-21556-999999-99-9999-9999</t>
+  </si>
+  <si>
+    <t>TC3_data</t>
+  </si>
+  <si>
+    <t>TC2_parameter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +451,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -116,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -129,6 +520,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,6 +926,681 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="52" style="6" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="11.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
+    <col min="9" max="9" width="25.5703125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7">
+        <v>44008</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="7">
+        <v>5</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="7">
+        <v>44008</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="7">
+        <v>44008</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="7">
+        <v>44008</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="7">
+        <v>44008</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="7">
+        <v>240000</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="7">
+        <v>200000</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -597,7 +1678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
